--- a/DashboardSW/data-in/Data-In.xlsx
+++ b/DashboardSW/data-in/Data-In.xlsx
@@ -244,9 +244,6 @@
     <t>xprlan101</t>
   </si>
   <si>
-    <t>74:46:A0:98:27:E4</t>
-  </si>
-  <si>
     <t>19-AUG-14 08.21.00.000000 PM</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>xprbee007</t>
   </si>
   <si>
-    <t>00:1F:29:41:37:E3</t>
-  </si>
-  <si>
     <t>18-AUG-14 05.45.00.000000 AM</t>
   </si>
   <si>
@@ -319,9 +313,6 @@
     <t>xprdpk070l</t>
   </si>
   <si>
-    <t>18:A9:05:90:14:20</t>
-  </si>
-  <si>
     <t>26-SEP-12 02.51.00.000000 PM</t>
   </si>
   <si>
@@ -355,9 +346,6 @@
     <t>xprdpk185</t>
   </si>
   <si>
-    <t>80:C1:6E:E1:7A:D9</t>
-  </si>
-  <si>
     <t>28-JUL-14 06.57.00.000000 AM</t>
   </si>
   <si>
@@ -385,9 +373,6 @@
     <t>xts331</t>
   </si>
   <si>
-    <t>00:21:5A:23:6F:88</t>
-  </si>
-  <si>
     <t>05-AUG-14 08.39.00.000000 AM</t>
   </si>
   <si>
@@ -418,9 +403,6 @@
     <t>xreglod080</t>
   </si>
   <si>
-    <t>00:25:B3:29:41:BD</t>
-  </si>
-  <si>
     <t>08-AUG-13 02.47.00.000000 PM</t>
   </si>
   <si>
@@ -448,9 +430,6 @@
     <t>xkits023</t>
   </si>
   <si>
-    <t>00:25:B3:CE:DB:1A</t>
-  </si>
-  <si>
     <t>22-MAY-14 12.53.00.000000 AM</t>
   </si>
   <si>
@@ -478,9 +457,6 @@
     <t>xccsun043</t>
   </si>
   <si>
-    <t>18:A9:05:B4:FF:19</t>
-  </si>
-  <si>
     <t>30-MAY-14 03.03.00.000000 PM</t>
   </si>
   <si>
@@ -508,9 +484,6 @@
     <t>xts293</t>
   </si>
   <si>
-    <t>00:21:5A:23:6F:94</t>
-  </si>
-  <si>
     <t>19-FEB-14 05.38.00.000000 AM</t>
   </si>
   <si>
@@ -535,9 +508,6 @@
     <t>xprbar139</t>
   </si>
   <si>
-    <t>18:A9:05:B6:B0:4D</t>
-  </si>
-  <si>
     <t>13-MAY-14 03.10.00.000000 PM</t>
   </si>
   <si>
@@ -623,6 +593,36 @@
   </si>
   <si>
     <t>HANDERSEN</t>
+  </si>
+  <si>
+    <t>47:64:0A:89:72:4E</t>
+  </si>
+  <si>
+    <t>99:F1:92:14:73:3E</t>
+  </si>
+  <si>
+    <t>81:9A:50:09:41:02</t>
+  </si>
+  <si>
+    <t>08:1C:E6:1E:A7:9D</t>
+  </si>
+  <si>
+    <t>00:12:A5:32:F6:58</t>
+  </si>
+  <si>
+    <t>73:52:3B:92:14:DB</t>
+  </si>
+  <si>
+    <t>58:52:3B:E4:B8:A2</t>
+  </si>
+  <si>
+    <t>81:9A:5F:4B:BF:91</t>
+  </si>
+  <si>
+    <t>92:12:A4:37:F3:45</t>
+  </si>
+  <si>
+    <t>89:9C:5D:65:07:D6</t>
   </si>
 </sst>
 </file>
@@ -967,9 +967,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AQ11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B2" sqref="B2"/>
+      <selection pane="bottomLeft" activeCell="AQ10" sqref="AQ10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1169,7 @@
         <v>41471</v>
       </c>
       <c r="H2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="U2">
         <v>16351</v>
@@ -1217,16 +1217,16 @@
         <v>53</v>
       </c>
       <c r="X2" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y2" t="s">
         <v>157</v>
       </c>
-      <c r="Y2" t="s">
-        <v>167</v>
-      </c>
       <c r="Z2" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA2" t="s">
         <v>54</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>55</v>
       </c>
       <c r="AB2">
         <v>6851</v>
@@ -1238,10 +1238,10 @@
         <v>11151</v>
       </c>
       <c r="AE2" t="s">
+        <v>55</v>
+      </c>
+      <c r="AF2" t="s">
         <v>56</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>57</v>
       </c>
       <c r="AG2" s="1">
         <v>41696.74858796296</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="AK2" t="s">
+        <v>57</v>
+      </c>
+      <c r="AL2" t="s">
         <v>58</v>
       </c>
-      <c r="AL2" t="s">
-        <v>59</v>
-      </c>
       <c r="AM2" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="AN2" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="AP2" s="1">
         <v>41879.430219907408</v>
@@ -1282,19 +1282,19 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E3" t="s">
         <v>60</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>61</v>
-      </c>
-      <c r="F3" t="s">
-        <v>62</v>
       </c>
       <c r="G3" s="1">
         <v>39281</v>
       </c>
       <c r="H3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
@@ -1303,16 +1303,16 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
+        <v>62</v>
+      </c>
+      <c r="L3" t="s">
         <v>63</v>
-      </c>
-      <c r="L3" t="s">
-        <v>64</v>
       </c>
       <c r="M3" t="s">
         <v>49</v>
       </c>
       <c r="N3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O3">
         <v>2050280</v>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="U3">
         <v>5050</v>
@@ -1339,19 +1339,19 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
+        <v>65</v>
+      </c>
+      <c r="X3" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y3" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA3" t="s">
         <v>66</v>
-      </c>
-      <c r="X3" t="s">
-        <v>159</v>
-      </c>
-      <c r="Y3" t="s">
-        <v>168</v>
-      </c>
-      <c r="Z3" t="s">
-        <v>67</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>68</v>
       </c>
       <c r="AB3">
         <v>2926</v>
@@ -1363,10 +1363,10 @@
         <v>13734</v>
       </c>
       <c r="AE3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AF3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG3" s="1">
         <v>40808.651956018519</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="AK3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="AL3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="AM3" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="AN3" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="AP3" s="1">
         <v>41879.420752314814</v>
@@ -1407,19 +1407,19 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F4" t="s">
         <v>72</v>
-      </c>
-      <c r="E4" t="s">
-        <v>73</v>
-      </c>
-      <c r="F4" t="s">
-        <v>74</v>
       </c>
       <c r="G4" s="1">
         <v>39891</v>
       </c>
       <c r="H4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
         <v>46</v>
@@ -1428,16 +1428,16 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M4" t="s">
         <v>49</v>
       </c>
       <c r="N4" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="O4">
         <v>2023628</v>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="U4">
         <v>14387</v>
@@ -1464,19 +1464,19 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="X4" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Y4" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Z4" t="s">
-        <v>79</v>
+        <v>173</v>
       </c>
       <c r="AA4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AB4">
         <v>1421</v>
@@ -1488,10 +1488,10 @@
         <v>735366</v>
       </c>
       <c r="AE4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AF4" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AG4" s="1">
         <v>41495.977534722224</v>
@@ -1506,16 +1506,16 @@
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AL4" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="AM4" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="AN4" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="AP4" s="1">
         <v>41794.65960648148</v>
@@ -1532,19 +1532,19 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" s="1">
         <v>40857</v>
       </c>
       <c r="H5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
         <v>46</v>
@@ -1553,16 +1553,16 @@
         <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="L5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="M5" t="s">
         <v>49</v>
       </c>
       <c r="N5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="O5">
         <v>3319760</v>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
       <c r="U5">
         <v>12800</v>
@@ -1589,19 +1589,19 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X5" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="Y5" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="Z5" t="s">
-        <v>91</v>
+        <v>174</v>
       </c>
       <c r="AA5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AB5">
         <v>11712</v>
@@ -1613,10 +1613,10 @@
         <v>43512</v>
       </c>
       <c r="AE5" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="AF5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG5" s="1">
         <v>41321.018425925926</v>
@@ -1631,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="AL5" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AM5" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
       <c r="AN5" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="AP5" s="1">
         <v>41879.424884259257</v>
@@ -1657,19 +1657,19 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="G6" s="1">
         <v>39281</v>
       </c>
       <c r="H6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -1678,16 +1678,16 @@
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="L6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M6" t="s">
         <v>49</v>
       </c>
       <c r="N6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O6">
         <v>2050280</v>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="U6">
         <v>10694</v>
@@ -1714,19 +1714,19 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="X6" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="Y6" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z6" t="s">
-        <v>101</v>
+        <v>175</v>
       </c>
       <c r="AA6" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
       <c r="AB6">
         <v>8315</v>
@@ -1738,10 +1738,10 @@
         <v>31881</v>
       </c>
       <c r="AE6" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
       <c r="AF6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG6" s="1">
         <v>41096.963252314818</v>
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
       <c r="AL6" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="AM6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AN6" t="s">
-        <v>105</v>
+        <v>100</v>
       </c>
       <c r="AP6" s="1">
         <v>41879.463703703703</v>
@@ -1782,13 +1782,13 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>106</v>
+        <v>101</v>
       </c>
       <c r="E7" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
       <c r="F7" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="G7" s="1">
         <v>39936</v>
@@ -1797,16 +1797,16 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L7" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M7" t="s">
         <v>49</v>
       </c>
       <c r="N7" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O7">
         <v>2024624</v>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="U7">
         <v>14370</v>
@@ -1833,19 +1833,19 @@
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="X7" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y7" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z7" t="s">
-        <v>112</v>
+        <v>176</v>
       </c>
       <c r="AA7" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>12</v>
       </c>
       <c r="AE7" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="AF7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AG7" s="1">
         <v>41594.016585648147</v>
@@ -1875,16 +1875,16 @@
         <v>3</v>
       </c>
       <c r="AK7" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AL7" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="AM7" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AN7" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AP7" s="1">
         <v>41771.603217592594</v>
@@ -1901,19 +1901,19 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="E8" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="G8" s="1">
         <v>39877</v>
       </c>
       <c r="H8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
@@ -1922,16 +1922,16 @@
         <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="L8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M8" t="s">
         <v>49</v>
       </c>
       <c r="N8" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O8">
         <v>2024624</v>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="U8">
         <v>8400</v>
@@ -1958,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="X8" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y8" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z8" t="s">
-        <v>122</v>
+        <v>177</v>
       </c>
       <c r="AA8" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="AB8">
         <v>22960</v>
@@ -1982,10 +1982,10 @@
         <v>140266</v>
       </c>
       <c r="AE8" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="AF8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="AG8" s="1">
         <v>40824.003460648149</v>
@@ -2000,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="AL8" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="AM8" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="AN8" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
       <c r="AO8" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="AP8" s="1">
         <v>41767.485532407409</v>
@@ -2029,13 +2029,13 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>122</v>
       </c>
       <c r="F9" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="G9" s="1">
         <v>39877</v>
@@ -2044,16 +2044,16 @@
         <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L9" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M9" t="s">
         <v>49</v>
       </c>
       <c r="N9" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O9">
         <v>2041008</v>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="U9">
         <v>17459</v>
@@ -2080,19 +2080,19 @@
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="X9" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z9" t="s">
-        <v>132</v>
+        <v>178</v>
       </c>
       <c r="AA9" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>3936</v>
       </c>
       <c r="AE9" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="AF9" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AG9" s="1">
         <v>41789.629108796296</v>
@@ -2122,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AL9" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="AM9" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO9" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="AP9" s="1">
         <v>41845.622511574074</v>
@@ -2148,19 +2148,19 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E10" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="G10" s="1">
         <v>39281</v>
       </c>
       <c r="H10" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
@@ -2169,16 +2169,16 @@
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M10" t="s">
         <v>49</v>
       </c>
       <c r="N10" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="O10">
         <v>2050280</v>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="U10">
         <v>15209</v>
@@ -2205,19 +2205,19 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>141</v>
+        <v>133</v>
       </c>
       <c r="X10" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y10" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z10" t="s">
-        <v>142</v>
+        <v>179</v>
       </c>
       <c r="AA10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>659</v>
       </c>
       <c r="AE10" t="s">
-        <v>144</v>
+        <v>135</v>
       </c>
       <c r="AF10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AG10" s="1">
         <v>41580.016458333332</v>
@@ -2247,19 +2247,19 @@
         <v>3</v>
       </c>
       <c r="AK10" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="AL10" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="AM10" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AN10" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="AO10" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="AP10" s="1">
         <v>41767.486342592594</v>
@@ -2277,13 +2277,13 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="E11" t="s">
-        <v>148</v>
+        <v>139</v>
       </c>
       <c r="F11" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="G11" s="1">
         <v>39877</v>
@@ -2292,16 +2292,16 @@
         <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="L11" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="M11" t="s">
         <v>49</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="O11">
         <v>2041008</v>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="U11">
         <v>17039</v>
@@ -2328,19 +2328,19 @@
         <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="X11" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="Y11" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="Z11" t="s">
-        <v>151</v>
+        <v>180</v>
       </c>
       <c r="AA11" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>25</v>
       </c>
       <c r="AE11" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
       <c r="AF11" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="AG11" s="1">
         <v>41772.633888888886</v>
@@ -2370,16 +2370,16 @@
         <v>2</v>
       </c>
       <c r="AK11" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="AL11" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
       <c r="AM11" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="AO11" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
       <c r="AP11" s="1">
         <v>41845.622499999998</v>

--- a/DashboardSW/data-in/Data-In.xlsx
+++ b/DashboardSW/data-in/Data-In.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vyafimchyk.IMMERSIVE\Desktop\DoJ - SW Dashboard\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Viktar\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -80,7 +80,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="181">
   <si>
     <t>ID</t>
   </si>
@@ -226,9 +226,6 @@
     <t>MDESAILL</t>
   </si>
   <si>
-    <t>Langi-Kal-Kal-Prison</t>
-  </si>
-  <si>
     <t>Hewlett-Packard</t>
   </si>
   <si>
@@ -271,9 +268,6 @@
     <t>RSINCLAI</t>
   </si>
   <si>
-    <t>Beechworth-Prison</t>
-  </si>
-  <si>
     <t>HP Compaq dc7800 Small Form Factor</t>
   </si>
   <si>
@@ -304,9 +298,6 @@
     <t>DMERCURI</t>
   </si>
   <si>
-    <t>Deer-Park-Prison</t>
-  </si>
-  <si>
     <t>HP Compaq 6730b</t>
   </si>
   <si>
@@ -367,9 +358,6 @@
     <t>ZSHAH</t>
   </si>
   <si>
-    <t>121-Exhibition</t>
-  </si>
-  <si>
     <t>xts331</t>
   </si>
   <si>
@@ -623,6 +611,18 @@
   </si>
   <si>
     <t>89:9C:5D:65:07:D6</t>
+  </si>
+  <si>
+    <t>Shri Lanka</t>
+  </si>
+  <si>
+    <t>France</t>
+  </si>
+  <si>
+    <t>Ireand</t>
+  </si>
+  <si>
+    <t>Germany</t>
   </si>
 </sst>
 </file>
@@ -965,11 +965,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AQ11"/>
+  <dimension ref="A1:AQ28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AM1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AQ10" sqref="AQ10"/>
+      <selection pane="bottomLeft" activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1169,7 +1169,7 @@
         <v>41471</v>
       </c>
       <c r="H2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="I2" t="s">
         <v>46</v>
@@ -1181,23 +1181,23 @@
         <v>47</v>
       </c>
       <c r="L2" t="s">
+        <v>177</v>
+      </c>
+      <c r="M2" t="s">
         <v>48</v>
       </c>
-      <c r="M2" t="s">
+      <c r="N2" t="s">
         <v>49</v>
-      </c>
-      <c r="N2" t="s">
-        <v>50</v>
       </c>
       <c r="O2">
         <v>3559408</v>
       </c>
       <c r="P2" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" t="s">
         <v>51</v>
       </c>
-      <c r="Q2" t="s">
-        <v>52</v>
-      </c>
       <c r="R2" t="s">
         <v>46</v>
       </c>
@@ -1205,7 +1205,7 @@
         <v>1</v>
       </c>
       <c r="T2" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="U2">
         <v>16351</v>
@@ -1214,19 +1214,19 @@
         <v>1</v>
       </c>
       <c r="W2" t="s">
+        <v>52</v>
+      </c>
+      <c r="X2" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y2" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z2" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA2" t="s">
         <v>53</v>
-      </c>
-      <c r="X2" t="s">
-        <v>147</v>
-      </c>
-      <c r="Y2" t="s">
-        <v>157</v>
-      </c>
-      <c r="Z2" t="s">
-        <v>171</v>
-      </c>
-      <c r="AA2" t="s">
-        <v>54</v>
       </c>
       <c r="AB2">
         <v>6851</v>
@@ -1238,10 +1238,10 @@
         <v>11151</v>
       </c>
       <c r="AE2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF2" t="s">
         <v>55</v>
-      </c>
-      <c r="AF2" t="s">
-        <v>56</v>
       </c>
       <c r="AG2" s="1">
         <v>41696.74858796296</v>
@@ -1256,16 +1256,16 @@
         <v>0</v>
       </c>
       <c r="AK2" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL2" t="s">
         <v>57</v>
       </c>
-      <c r="AL2" t="s">
-        <v>58</v>
-      </c>
       <c r="AM2" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="AN2" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="AP2" s="1">
         <v>41879.430219907408</v>
@@ -1282,19 +1282,19 @@
         <v>42</v>
       </c>
       <c r="D3" t="s">
+        <v>58</v>
+      </c>
+      <c r="E3" t="s">
         <v>59</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>60</v>
-      </c>
-      <c r="F3" t="s">
-        <v>61</v>
       </c>
       <c r="G3" s="1">
         <v>39281</v>
       </c>
       <c r="H3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="I3" t="s">
         <v>46</v>
@@ -1303,26 +1303,26 @@
         <v>46</v>
       </c>
       <c r="K3" t="s">
+        <v>61</v>
+      </c>
+      <c r="L3" t="s">
+        <v>178</v>
+      </c>
+      <c r="M3" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" t="s">
         <v>62</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" t="s">
-        <v>64</v>
       </c>
       <c r="O3">
         <v>2050280</v>
       </c>
       <c r="P3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q3" t="s">
         <v>51</v>
       </c>
-      <c r="Q3" t="s">
-        <v>52</v>
-      </c>
       <c r="R3" t="s">
         <v>46</v>
       </c>
@@ -1330,7 +1330,7 @@
         <v>1</v>
       </c>
       <c r="T3" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="U3">
         <v>5050</v>
@@ -1339,19 +1339,19 @@
         <v>1</v>
       </c>
       <c r="W3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="X3" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="Y3" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Z3" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="AA3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="AB3">
         <v>2926</v>
@@ -1363,10 +1363,10 @@
         <v>13734</v>
       </c>
       <c r="AE3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AF3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG3" s="1">
         <v>40808.651956018519</v>
@@ -1381,16 +1381,16 @@
         <v>0</v>
       </c>
       <c r="AK3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AL3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="AM3" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="AN3" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="AP3" s="1">
         <v>41879.420752314814</v>
@@ -1407,19 +1407,19 @@
         <v>42</v>
       </c>
       <c r="D4" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F4" t="s">
         <v>70</v>
-      </c>
-      <c r="E4" t="s">
-        <v>71</v>
-      </c>
-      <c r="F4" t="s">
-        <v>72</v>
       </c>
       <c r="G4" s="1">
         <v>39891</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="I4" t="s">
         <v>46</v>
@@ -1428,26 +1428,26 @@
         <v>46</v>
       </c>
       <c r="K4" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L4" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="M4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N4" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="O4">
         <v>2023628</v>
       </c>
       <c r="P4" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q4" t="s">
         <v>51</v>
       </c>
-      <c r="Q4" t="s">
-        <v>52</v>
-      </c>
       <c r="R4" t="s">
         <v>46</v>
       </c>
@@ -1455,7 +1455,7 @@
         <v>1</v>
       </c>
       <c r="T4" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U4">
         <v>14387</v>
@@ -1464,19 +1464,19 @@
         <v>1</v>
       </c>
       <c r="W4" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="X4" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y4" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Z4" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="AA4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AB4">
         <v>1421</v>
@@ -1488,10 +1488,10 @@
         <v>735366</v>
       </c>
       <c r="AE4" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AF4" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AG4" s="1">
         <v>41495.977534722224</v>
@@ -1506,16 +1506,16 @@
         <v>3</v>
       </c>
       <c r="AK4" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AL4" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="AM4" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="AN4" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="AP4" s="1">
         <v>41794.65960648148</v>
@@ -1532,19 +1532,19 @@
         <v>42</v>
       </c>
       <c r="D5" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E5" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G5" s="1">
         <v>40857</v>
       </c>
       <c r="H5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="I5" t="s">
         <v>46</v>
@@ -1553,26 +1553,26 @@
         <v>46</v>
       </c>
       <c r="K5" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="L5" t="s">
-        <v>74</v>
+        <v>179</v>
       </c>
       <c r="M5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O5">
         <v>3319760</v>
       </c>
       <c r="P5" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q5" t="s">
         <v>51</v>
       </c>
-      <c r="Q5" t="s">
-        <v>52</v>
-      </c>
       <c r="R5" t="s">
         <v>46</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>1</v>
       </c>
       <c r="T5" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="U5">
         <v>12800</v>
@@ -1589,19 +1589,19 @@
         <v>1</v>
       </c>
       <c r="W5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="X5" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="Y5" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="Z5" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="AA5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="AB5">
         <v>11712</v>
@@ -1613,10 +1613,10 @@
         <v>43512</v>
       </c>
       <c r="AE5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="AF5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG5" s="1">
         <v>41321.018425925926</v>
@@ -1631,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="AK5" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="AL5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="AM5" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="AN5" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="AP5" s="1">
         <v>41879.424884259257</v>
@@ -1657,19 +1657,19 @@
         <v>42</v>
       </c>
       <c r="D6" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E6" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F6" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="G6" s="1">
         <v>39281</v>
       </c>
       <c r="H6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="I6" t="s">
         <v>46</v>
@@ -1678,26 +1678,26 @@
         <v>46</v>
       </c>
       <c r="K6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L6" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O6">
         <v>2050280</v>
       </c>
       <c r="P6" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q6" t="s">
         <v>51</v>
       </c>
-      <c r="Q6" t="s">
-        <v>52</v>
-      </c>
       <c r="R6" t="s">
         <v>46</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>1</v>
       </c>
       <c r="T6" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U6">
         <v>10694</v>
@@ -1714,19 +1714,19 @@
         <v>1</v>
       </c>
       <c r="W6" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="X6" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="Y6" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="Z6" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="AA6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="AB6">
         <v>8315</v>
@@ -1738,10 +1738,10 @@
         <v>31881</v>
       </c>
       <c r="AE6" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="AF6" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG6" s="1">
         <v>41096.963252314818</v>
@@ -1756,16 +1756,16 @@
         <v>0</v>
       </c>
       <c r="AK6" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="AL6" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="AM6" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="AN6" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="AP6" s="1">
         <v>41879.463703703703</v>
@@ -1782,13 +1782,13 @@
         <v>42</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E7" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="G7" s="1">
         <v>39936</v>
@@ -1797,26 +1797,26 @@
         <v>46</v>
       </c>
       <c r="K7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L7" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M7" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N7" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O7">
         <v>2024624</v>
       </c>
       <c r="P7" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q7" t="s">
         <v>51</v>
       </c>
-      <c r="Q7" t="s">
-        <v>52</v>
-      </c>
       <c r="R7" t="s">
         <v>46</v>
       </c>
@@ -1824,7 +1824,7 @@
         <v>1</v>
       </c>
       <c r="T7" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U7">
         <v>14370</v>
@@ -1833,19 +1833,19 @@
         <v>1</v>
       </c>
       <c r="W7" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="X7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y7" t="s">
         <v>155</v>
       </c>
-      <c r="Y7" t="s">
-        <v>159</v>
-      </c>
       <c r="Z7" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="AA7" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="AB7">
         <v>0</v>
@@ -1857,10 +1857,10 @@
         <v>12</v>
       </c>
       <c r="AE7" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="AF7" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AG7" s="1">
         <v>41594.016585648147</v>
@@ -1875,16 +1875,16 @@
         <v>3</v>
       </c>
       <c r="AK7" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AL7" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="AM7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AN7" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AP7" s="1">
         <v>41771.603217592594</v>
@@ -1901,19 +1901,19 @@
         <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="E8" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="G8" s="1">
         <v>39877</v>
       </c>
       <c r="H8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="I8" t="s">
         <v>46</v>
@@ -1922,26 +1922,26 @@
         <v>46</v>
       </c>
       <c r="K8" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="L8" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N8" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O8">
         <v>2024624</v>
       </c>
       <c r="P8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q8" t="s">
         <v>51</v>
       </c>
-      <c r="Q8" t="s">
-        <v>52</v>
-      </c>
       <c r="R8" t="s">
         <v>46</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>1</v>
       </c>
       <c r="T8" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U8">
         <v>8400</v>
@@ -1958,19 +1958,19 @@
         <v>1</v>
       </c>
       <c r="W8" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="X8" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y8" t="s">
         <v>155</v>
       </c>
-      <c r="Y8" t="s">
-        <v>159</v>
-      </c>
       <c r="Z8" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="AA8" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="AB8">
         <v>22960</v>
@@ -1982,10 +1982,10 @@
         <v>140266</v>
       </c>
       <c r="AE8" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="AF8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG8" s="1">
         <v>40824.003460648149</v>
@@ -2000,19 +2000,19 @@
         <v>0</v>
       </c>
       <c r="AK8" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="AL8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="AM8" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="AN8" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="AO8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="AP8" s="1">
         <v>41767.485532407409</v>
@@ -2029,13 +2029,13 @@
         <v>42</v>
       </c>
       <c r="D9" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="E9" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="F9" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="G9" s="1">
         <v>39877</v>
@@ -2044,26 +2044,26 @@
         <v>46</v>
       </c>
       <c r="K9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L9" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O9">
         <v>2041008</v>
       </c>
       <c r="P9" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q9" t="s">
         <v>51</v>
       </c>
-      <c r="Q9" t="s">
-        <v>52</v>
-      </c>
       <c r="R9" t="s">
         <v>46</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>1</v>
       </c>
       <c r="T9" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U9">
         <v>17459</v>
@@ -2080,19 +2080,19 @@
         <v>1</v>
       </c>
       <c r="W9" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="X9" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y9" t="s">
         <v>155</v>
       </c>
-      <c r="Y9" t="s">
-        <v>159</v>
-      </c>
       <c r="Z9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="AA9" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="AB9">
         <v>0</v>
@@ -2104,10 +2104,10 @@
         <v>3936</v>
       </c>
       <c r="AE9" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="AF9" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AG9" s="1">
         <v>41789.629108796296</v>
@@ -2122,16 +2122,16 @@
         <v>1</v>
       </c>
       <c r="AK9" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL9" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="AM9" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AO9" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="AP9" s="1">
         <v>41845.622511574074</v>
@@ -2148,19 +2148,19 @@
         <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="G10" s="1">
         <v>39281</v>
       </c>
       <c r="H10" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="I10" t="s">
         <v>46</v>
@@ -2169,26 +2169,26 @@
         <v>46</v>
       </c>
       <c r="K10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L10" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M10" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N10" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="O10">
         <v>2050280</v>
       </c>
       <c r="P10" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q10" t="s">
         <v>51</v>
       </c>
-      <c r="Q10" t="s">
-        <v>52</v>
-      </c>
       <c r="R10" t="s">
         <v>46</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>1</v>
       </c>
       <c r="T10" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U10">
         <v>15209</v>
@@ -2205,19 +2205,19 @@
         <v>1</v>
       </c>
       <c r="W10" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="X10" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y10" t="s">
         <v>155</v>
       </c>
-      <c r="Y10" t="s">
-        <v>159</v>
-      </c>
       <c r="Z10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="AA10" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="AB10">
         <v>0</v>
@@ -2229,10 +2229,10 @@
         <v>659</v>
       </c>
       <c r="AE10" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="AF10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AG10" s="1">
         <v>41580.016458333332</v>
@@ -2247,19 +2247,19 @@
         <v>3</v>
       </c>
       <c r="AK10" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="AL10" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="AM10" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AN10" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="AO10" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="AP10" s="1">
         <v>41767.486342592594</v>
@@ -2277,13 +2277,13 @@
         <v>42</v>
       </c>
       <c r="D11" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="E11" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="G11" s="1">
         <v>39877</v>
@@ -2292,26 +2292,26 @@
         <v>46</v>
       </c>
       <c r="K11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="L11" t="s">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="M11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="N11" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="O11">
         <v>2041008</v>
       </c>
       <c r="P11" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q11" t="s">
         <v>51</v>
       </c>
-      <c r="Q11" t="s">
-        <v>52</v>
-      </c>
       <c r="R11" t="s">
         <v>46</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>1</v>
       </c>
       <c r="T11" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="U11">
         <v>17039</v>
@@ -2328,19 +2328,19 @@
         <v>1</v>
       </c>
       <c r="W11" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="X11" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y11" t="s">
         <v>155</v>
       </c>
-      <c r="Y11" t="s">
-        <v>159</v>
-      </c>
       <c r="Z11" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="AA11" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="AB11">
         <v>0</v>
@@ -2352,10 +2352,10 @@
         <v>25</v>
       </c>
       <c r="AE11" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="AF11" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="AG11" s="1">
         <v>41772.633888888886</v>
@@ -2370,19 +2370,2132 @@
         <v>2</v>
       </c>
       <c r="AK11" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="AL11" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="AM11" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="AO11" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="AP11" s="1">
         <v>41845.622499999998</v>
+      </c>
+    </row>
+    <row r="12" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>57789</v>
+      </c>
+      <c r="B12">
+        <v>16351</v>
+      </c>
+      <c r="C12" t="s">
+        <v>42</v>
+      </c>
+      <c r="D12" t="s">
+        <v>43</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>45</v>
+      </c>
+      <c r="G12" s="1">
+        <v>41471</v>
+      </c>
+      <c r="H12" t="s">
+        <v>157</v>
+      </c>
+      <c r="I12" t="s">
+        <v>46</v>
+      </c>
+      <c r="J12" t="s">
+        <v>46</v>
+      </c>
+      <c r="K12" t="s">
+        <v>47</v>
+      </c>
+      <c r="L12" t="s">
+        <v>177</v>
+      </c>
+      <c r="M12" t="s">
+        <v>48</v>
+      </c>
+      <c r="N12" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12">
+        <v>3559408</v>
+      </c>
+      <c r="P12" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>51</v>
+      </c>
+      <c r="R12" t="s">
+        <v>46</v>
+      </c>
+      <c r="S12">
+        <v>1</v>
+      </c>
+      <c r="T12" t="s">
+        <v>142</v>
+      </c>
+      <c r="U12">
+        <v>16351</v>
+      </c>
+      <c r="V12">
+        <v>1</v>
+      </c>
+      <c r="W12" t="s">
+        <v>52</v>
+      </c>
+      <c r="X12" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB12">
+        <v>6851</v>
+      </c>
+      <c r="AC12">
+        <v>27</v>
+      </c>
+      <c r="AD12">
+        <v>11151</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF12" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>41696.74858796296</v>
+      </c>
+      <c r="AH12">
+        <v>2014</v>
+      </c>
+      <c r="AI12">
+        <v>0</v>
+      </c>
+      <c r="AJ12">
+        <v>0</v>
+      </c>
+      <c r="AK12" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL12" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM12" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN12" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP12" s="1">
+        <v>41879.430219907408</v>
+      </c>
+    </row>
+    <row r="13" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>47789</v>
+      </c>
+      <c r="B13">
+        <v>16351</v>
+      </c>
+      <c r="C13" t="s">
+        <v>42</v>
+      </c>
+      <c r="D13" t="s">
+        <v>43</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>41471</v>
+      </c>
+      <c r="H13" t="s">
+        <v>157</v>
+      </c>
+      <c r="I13" t="s">
+        <v>46</v>
+      </c>
+      <c r="J13" t="s">
+        <v>46</v>
+      </c>
+      <c r="K13" t="s">
+        <v>47</v>
+      </c>
+      <c r="L13" t="s">
+        <v>177</v>
+      </c>
+      <c r="M13" t="s">
+        <v>48</v>
+      </c>
+      <c r="N13" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13">
+        <v>3559408</v>
+      </c>
+      <c r="P13" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>51</v>
+      </c>
+      <c r="R13" t="s">
+        <v>46</v>
+      </c>
+      <c r="S13">
+        <v>1</v>
+      </c>
+      <c r="T13" t="s">
+        <v>142</v>
+      </c>
+      <c r="U13">
+        <v>16351</v>
+      </c>
+      <c r="V13">
+        <v>1</v>
+      </c>
+      <c r="W13" t="s">
+        <v>52</v>
+      </c>
+      <c r="X13" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA13" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB13">
+        <v>6851</v>
+      </c>
+      <c r="AC13">
+        <v>27</v>
+      </c>
+      <c r="AD13">
+        <v>11151</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF13" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>41696.74858796296</v>
+      </c>
+      <c r="AH13">
+        <v>2014</v>
+      </c>
+      <c r="AI13">
+        <v>0</v>
+      </c>
+      <c r="AJ13">
+        <v>0</v>
+      </c>
+      <c r="AK13" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL13" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM13" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN13" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP13" s="1">
+        <v>41879.430219907408</v>
+      </c>
+    </row>
+    <row r="14" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>40897</v>
+      </c>
+      <c r="B14">
+        <v>5050</v>
+      </c>
+      <c r="C14" t="s">
+        <v>42</v>
+      </c>
+      <c r="D14" t="s">
+        <v>58</v>
+      </c>
+      <c r="E14" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" t="s">
+        <v>60</v>
+      </c>
+      <c r="G14" s="1">
+        <v>39281</v>
+      </c>
+      <c r="H14" t="s">
+        <v>159</v>
+      </c>
+      <c r="I14" t="s">
+        <v>46</v>
+      </c>
+      <c r="J14" t="s">
+        <v>46</v>
+      </c>
+      <c r="K14" t="s">
+        <v>61</v>
+      </c>
+      <c r="L14" t="s">
+        <v>178</v>
+      </c>
+      <c r="M14" t="s">
+        <v>48</v>
+      </c>
+      <c r="N14" t="s">
+        <v>62</v>
+      </c>
+      <c r="O14">
+        <v>2050280</v>
+      </c>
+      <c r="P14" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>51</v>
+      </c>
+      <c r="R14" t="s">
+        <v>46</v>
+      </c>
+      <c r="S14">
+        <v>1</v>
+      </c>
+      <c r="T14" t="s">
+        <v>144</v>
+      </c>
+      <c r="U14">
+        <v>5050</v>
+      </c>
+      <c r="V14">
+        <v>1</v>
+      </c>
+      <c r="W14" t="s">
+        <v>63</v>
+      </c>
+      <c r="X14" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y14" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA14" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB14">
+        <v>2926</v>
+      </c>
+      <c r="AC14">
+        <v>26</v>
+      </c>
+      <c r="AD14">
+        <v>13734</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF14" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>40808.651956018519</v>
+      </c>
+      <c r="AH14">
+        <v>2012</v>
+      </c>
+      <c r="AI14">
+        <v>0</v>
+      </c>
+      <c r="AJ14">
+        <v>0</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN14" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP14" s="1">
+        <v>41879.420752314814</v>
+      </c>
+    </row>
+    <row r="15" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>47506</v>
+      </c>
+      <c r="B15">
+        <v>14387</v>
+      </c>
+      <c r="C15" t="s">
+        <v>42</v>
+      </c>
+      <c r="D15" t="s">
+        <v>68</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="F15" t="s">
+        <v>70</v>
+      </c>
+      <c r="G15" s="1">
+        <v>39891</v>
+      </c>
+      <c r="H15" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" t="s">
+        <v>46</v>
+      </c>
+      <c r="J15" t="s">
+        <v>46</v>
+      </c>
+      <c r="K15" t="s">
+        <v>71</v>
+      </c>
+      <c r="L15" t="s">
+        <v>179</v>
+      </c>
+      <c r="M15" t="s">
+        <v>48</v>
+      </c>
+      <c r="N15" t="s">
+        <v>72</v>
+      </c>
+      <c r="O15">
+        <v>2023628</v>
+      </c>
+      <c r="P15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>51</v>
+      </c>
+      <c r="R15" t="s">
+        <v>46</v>
+      </c>
+      <c r="S15">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s">
+        <v>146</v>
+      </c>
+      <c r="U15">
+        <v>14387</v>
+      </c>
+      <c r="V15">
+        <v>1</v>
+      </c>
+      <c r="W15" t="s">
+        <v>73</v>
+      </c>
+      <c r="X15" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y15" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA15" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB15">
+        <v>1421</v>
+      </c>
+      <c r="AC15">
+        <v>1</v>
+      </c>
+      <c r="AD15">
+        <v>735366</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF15" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>41495.977534722224</v>
+      </c>
+      <c r="AH15">
+        <v>2014</v>
+      </c>
+      <c r="AI15">
+        <v>105</v>
+      </c>
+      <c r="AJ15">
+        <v>3</v>
+      </c>
+      <c r="AK15" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL15" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN15" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP15" s="1">
+        <v>41794.65960648148</v>
+      </c>
+    </row>
+    <row r="16" spans="1:43" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>45291</v>
+      </c>
+      <c r="B16">
+        <v>12800</v>
+      </c>
+      <c r="C16" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>80</v>
+      </c>
+      <c r="F16" t="s">
+        <v>81</v>
+      </c>
+      <c r="G16" s="1">
+        <v>40857</v>
+      </c>
+      <c r="H16" t="s">
+        <v>163</v>
+      </c>
+      <c r="I16" t="s">
+        <v>46</v>
+      </c>
+      <c r="J16" t="s">
+        <v>46</v>
+      </c>
+      <c r="K16" t="s">
+        <v>82</v>
+      </c>
+      <c r="L16" t="s">
+        <v>179</v>
+      </c>
+      <c r="M16" t="s">
+        <v>48</v>
+      </c>
+      <c r="N16" t="s">
+        <v>83</v>
+      </c>
+      <c r="O16">
+        <v>3319760</v>
+      </c>
+      <c r="P16" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q16" t="s">
+        <v>51</v>
+      </c>
+      <c r="R16" t="s">
+        <v>46</v>
+      </c>
+      <c r="S16">
+        <v>1</v>
+      </c>
+      <c r="T16" t="s">
+        <v>146</v>
+      </c>
+      <c r="U16">
+        <v>12800</v>
+      </c>
+      <c r="V16">
+        <v>1</v>
+      </c>
+      <c r="W16" t="s">
+        <v>84</v>
+      </c>
+      <c r="X16" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA16" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB16">
+        <v>11712</v>
+      </c>
+      <c r="AC16">
+        <v>3</v>
+      </c>
+      <c r="AD16">
+        <v>43512</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF16" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>41321.018425925926</v>
+      </c>
+      <c r="AH16">
+        <v>2013</v>
+      </c>
+      <c r="AI16">
+        <v>0</v>
+      </c>
+      <c r="AJ16">
+        <v>0</v>
+      </c>
+      <c r="AK16" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP16" s="1">
+        <v>41879.424884259257</v>
+      </c>
+    </row>
+    <row r="17" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>44382</v>
+      </c>
+      <c r="B17">
+        <v>10694</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>88</v>
+      </c>
+      <c r="E17" t="s">
+        <v>89</v>
+      </c>
+      <c r="F17" t="s">
+        <v>90</v>
+      </c>
+      <c r="G17" s="1">
+        <v>39281</v>
+      </c>
+      <c r="H17" t="s">
+        <v>91</v>
+      </c>
+      <c r="I17" t="s">
+        <v>46</v>
+      </c>
+      <c r="J17" t="s">
+        <v>46</v>
+      </c>
+      <c r="K17" t="s">
+        <v>91</v>
+      </c>
+      <c r="L17" t="s">
+        <v>180</v>
+      </c>
+      <c r="M17" t="s">
+        <v>48</v>
+      </c>
+      <c r="N17" t="s">
+        <v>62</v>
+      </c>
+      <c r="O17">
+        <v>2050280</v>
+      </c>
+      <c r="P17" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>51</v>
+      </c>
+      <c r="R17" t="s">
+        <v>46</v>
+      </c>
+      <c r="S17">
+        <v>1</v>
+      </c>
+      <c r="T17" t="s">
+        <v>148</v>
+      </c>
+      <c r="U17">
+        <v>10694</v>
+      </c>
+      <c r="V17">
+        <v>1</v>
+      </c>
+      <c r="W17" t="s">
+        <v>92</v>
+      </c>
+      <c r="X17" t="s">
+        <v>149</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>171</v>
+      </c>
+      <c r="AA17" t="s">
+        <v>93</v>
+      </c>
+      <c r="AB17">
+        <v>8315</v>
+      </c>
+      <c r="AC17">
+        <v>1</v>
+      </c>
+      <c r="AD17">
+        <v>31881</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>94</v>
+      </c>
+      <c r="AF17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>41096.963252314818</v>
+      </c>
+      <c r="AH17">
+        <v>2013</v>
+      </c>
+      <c r="AI17">
+        <v>0</v>
+      </c>
+      <c r="AJ17">
+        <v>0</v>
+      </c>
+      <c r="AK17" t="s">
+        <v>95</v>
+      </c>
+      <c r="AL17" t="s">
+        <v>150</v>
+      </c>
+      <c r="AM17" t="s">
+        <v>91</v>
+      </c>
+      <c r="AN17" t="s">
+        <v>96</v>
+      </c>
+      <c r="AP17" s="1">
+        <v>41879.463703703703</v>
+      </c>
+    </row>
+    <row r="18" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>46225</v>
+      </c>
+      <c r="B18">
+        <v>14370</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>97</v>
+      </c>
+      <c r="E18" t="s">
+        <v>98</v>
+      </c>
+      <c r="F18" t="s">
+        <v>99</v>
+      </c>
+      <c r="G18" s="1">
+        <v>39936</v>
+      </c>
+      <c r="J18" t="s">
+        <v>46</v>
+      </c>
+      <c r="K18" t="s">
+        <v>100</v>
+      </c>
+      <c r="L18" t="s">
+        <v>180</v>
+      </c>
+      <c r="M18" t="s">
+        <v>48</v>
+      </c>
+      <c r="N18" t="s">
+        <v>101</v>
+      </c>
+      <c r="O18">
+        <v>2024624</v>
+      </c>
+      <c r="P18" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q18" t="s">
+        <v>51</v>
+      </c>
+      <c r="R18" t="s">
+        <v>46</v>
+      </c>
+      <c r="S18">
+        <v>1</v>
+      </c>
+      <c r="T18" t="s">
+        <v>148</v>
+      </c>
+      <c r="U18">
+        <v>14370</v>
+      </c>
+      <c r="V18">
+        <v>1</v>
+      </c>
+      <c r="W18" t="s">
+        <v>102</v>
+      </c>
+      <c r="X18" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>172</v>
+      </c>
+      <c r="AA18" t="s">
+        <v>103</v>
+      </c>
+      <c r="AB18">
+        <v>0</v>
+      </c>
+      <c r="AC18">
+        <v>1</v>
+      </c>
+      <c r="AD18">
+        <v>12</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>104</v>
+      </c>
+      <c r="AF18" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>41594.016585648147</v>
+      </c>
+      <c r="AH18">
+        <v>2014</v>
+      </c>
+      <c r="AI18">
+        <v>91</v>
+      </c>
+      <c r="AJ18">
+        <v>3</v>
+      </c>
+      <c r="AK18" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL18" t="s">
+        <v>152</v>
+      </c>
+      <c r="AM18" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN18" t="s">
+        <v>106</v>
+      </c>
+      <c r="AP18" s="1">
+        <v>41771.603217592594</v>
+      </c>
+    </row>
+    <row r="19" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>43384</v>
+      </c>
+      <c r="B19">
+        <v>8400</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>107</v>
+      </c>
+      <c r="E19" t="s">
+        <v>108</v>
+      </c>
+      <c r="F19" t="s">
+        <v>109</v>
+      </c>
+      <c r="G19" s="1">
+        <v>39877</v>
+      </c>
+      <c r="H19" t="s">
+        <v>165</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+      <c r="J19" t="s">
+        <v>46</v>
+      </c>
+      <c r="K19" t="s">
+        <v>110</v>
+      </c>
+      <c r="L19" t="s">
+        <v>180</v>
+      </c>
+      <c r="M19" t="s">
+        <v>48</v>
+      </c>
+      <c r="N19" t="s">
+        <v>101</v>
+      </c>
+      <c r="O19">
+        <v>2024624</v>
+      </c>
+      <c r="P19" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q19" t="s">
+        <v>51</v>
+      </c>
+      <c r="R19" t="s">
+        <v>46</v>
+      </c>
+      <c r="S19">
+        <v>1</v>
+      </c>
+      <c r="T19" t="s">
+        <v>148</v>
+      </c>
+      <c r="U19">
+        <v>8400</v>
+      </c>
+      <c r="V19">
+        <v>1</v>
+      </c>
+      <c r="W19" t="s">
+        <v>111</v>
+      </c>
+      <c r="X19" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>173</v>
+      </c>
+      <c r="AA19" t="s">
+        <v>112</v>
+      </c>
+      <c r="AB19">
+        <v>22960</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>140266</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>113</v>
+      </c>
+      <c r="AF19" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>40824.003460648149</v>
+      </c>
+      <c r="AH19">
+        <v>2012</v>
+      </c>
+      <c r="AI19">
+        <v>0</v>
+      </c>
+      <c r="AJ19">
+        <v>0</v>
+      </c>
+      <c r="AK19" t="s">
+        <v>114</v>
+      </c>
+      <c r="AL19" t="s">
+        <v>115</v>
+      </c>
+      <c r="AM19" t="s">
+        <v>165</v>
+      </c>
+      <c r="AN19" t="s">
+        <v>164</v>
+      </c>
+      <c r="AO19" t="s">
+        <v>116</v>
+      </c>
+      <c r="AP19" s="1">
+        <v>41767.485532407409</v>
+      </c>
+    </row>
+    <row r="20" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>48960</v>
+      </c>
+      <c r="B20">
+        <v>17459</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E20" t="s">
+        <v>118</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" s="1">
+        <v>39877</v>
+      </c>
+      <c r="J20" t="s">
+        <v>46</v>
+      </c>
+      <c r="K20" t="s">
+        <v>100</v>
+      </c>
+      <c r="L20" t="s">
+        <v>180</v>
+      </c>
+      <c r="M20" t="s">
+        <v>48</v>
+      </c>
+      <c r="N20" t="s">
+        <v>101</v>
+      </c>
+      <c r="O20">
+        <v>2041008</v>
+      </c>
+      <c r="P20" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q20" t="s">
+        <v>51</v>
+      </c>
+      <c r="R20" t="s">
+        <v>46</v>
+      </c>
+      <c r="S20">
+        <v>1</v>
+      </c>
+      <c r="T20" t="s">
+        <v>148</v>
+      </c>
+      <c r="U20">
+        <v>17459</v>
+      </c>
+      <c r="V20">
+        <v>1</v>
+      </c>
+      <c r="W20" t="s">
+        <v>120</v>
+      </c>
+      <c r="X20" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>174</v>
+      </c>
+      <c r="AA20" t="s">
+        <v>121</v>
+      </c>
+      <c r="AB20">
+        <v>0</v>
+      </c>
+      <c r="AC20">
+        <v>1</v>
+      </c>
+      <c r="AD20">
+        <v>3936</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF20" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>41789.629108796296</v>
+      </c>
+      <c r="AH20">
+        <v>2015</v>
+      </c>
+      <c r="AI20">
+        <v>53</v>
+      </c>
+      <c r="AJ20">
+        <v>1</v>
+      </c>
+      <c r="AK20" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL20" t="s">
+        <v>124</v>
+      </c>
+      <c r="AM20" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO20" t="s">
+        <v>125</v>
+      </c>
+      <c r="AP20" s="1">
+        <v>41845.622511574074</v>
+      </c>
+    </row>
+    <row r="21" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>47522</v>
+      </c>
+      <c r="B21">
+        <v>15209</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>126</v>
+      </c>
+      <c r="E21" t="s">
+        <v>127</v>
+      </c>
+      <c r="F21" t="s">
+        <v>128</v>
+      </c>
+      <c r="G21" s="1">
+        <v>39281</v>
+      </c>
+      <c r="H21" t="s">
+        <v>166</v>
+      </c>
+      <c r="I21" t="s">
+        <v>46</v>
+      </c>
+      <c r="J21" t="s">
+        <v>46</v>
+      </c>
+      <c r="K21" t="s">
+        <v>100</v>
+      </c>
+      <c r="L21" t="s">
+        <v>180</v>
+      </c>
+      <c r="M21" t="s">
+        <v>48</v>
+      </c>
+      <c r="N21" t="s">
+        <v>62</v>
+      </c>
+      <c r="O21">
+        <v>2050280</v>
+      </c>
+      <c r="P21" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q21" t="s">
+        <v>51</v>
+      </c>
+      <c r="R21" t="s">
+        <v>46</v>
+      </c>
+      <c r="S21">
+        <v>1</v>
+      </c>
+      <c r="T21" t="s">
+        <v>148</v>
+      </c>
+      <c r="U21">
+        <v>15209</v>
+      </c>
+      <c r="V21">
+        <v>1</v>
+      </c>
+      <c r="W21" t="s">
+        <v>129</v>
+      </c>
+      <c r="X21" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>175</v>
+      </c>
+      <c r="AA21" t="s">
+        <v>130</v>
+      </c>
+      <c r="AB21">
+        <v>0</v>
+      </c>
+      <c r="AC21">
+        <v>1</v>
+      </c>
+      <c r="AD21">
+        <v>659</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>131</v>
+      </c>
+      <c r="AF21" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>41580.016458333332</v>
+      </c>
+      <c r="AH21">
+        <v>2014</v>
+      </c>
+      <c r="AI21">
+        <v>98</v>
+      </c>
+      <c r="AJ21">
+        <v>3</v>
+      </c>
+      <c r="AK21" t="s">
+        <v>105</v>
+      </c>
+      <c r="AL21" t="s">
+        <v>132</v>
+      </c>
+      <c r="AM21" t="s">
+        <v>100</v>
+      </c>
+      <c r="AN21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AO21" t="s">
+        <v>133</v>
+      </c>
+      <c r="AP21" s="1">
+        <v>41767.486342592594</v>
+      </c>
+    </row>
+    <row r="22" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>48551</v>
+      </c>
+      <c r="B22">
+        <v>17039</v>
+      </c>
+      <c r="C22" t="s">
+        <v>42</v>
+      </c>
+      <c r="D22" t="s">
+        <v>134</v>
+      </c>
+      <c r="E22" t="s">
+        <v>135</v>
+      </c>
+      <c r="F22" t="s">
+        <v>136</v>
+      </c>
+      <c r="G22" s="1">
+        <v>39877</v>
+      </c>
+      <c r="J22" t="s">
+        <v>46</v>
+      </c>
+      <c r="K22" t="s">
+        <v>100</v>
+      </c>
+      <c r="L22" t="s">
+        <v>180</v>
+      </c>
+      <c r="M22" t="s">
+        <v>48</v>
+      </c>
+      <c r="N22" t="s">
+        <v>101</v>
+      </c>
+      <c r="O22">
+        <v>2041008</v>
+      </c>
+      <c r="P22" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q22" t="s">
+        <v>51</v>
+      </c>
+      <c r="R22" t="s">
+        <v>46</v>
+      </c>
+      <c r="S22">
+        <v>1</v>
+      </c>
+      <c r="T22" t="s">
+        <v>148</v>
+      </c>
+      <c r="U22">
+        <v>17039</v>
+      </c>
+      <c r="V22">
+        <v>1</v>
+      </c>
+      <c r="W22" t="s">
+        <v>137</v>
+      </c>
+      <c r="X22" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y22" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>176</v>
+      </c>
+      <c r="AA22" t="s">
+        <v>138</v>
+      </c>
+      <c r="AB22">
+        <v>0</v>
+      </c>
+      <c r="AC22">
+        <v>1</v>
+      </c>
+      <c r="AD22">
+        <v>25</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>139</v>
+      </c>
+      <c r="AF22" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>41772.633888888886</v>
+      </c>
+      <c r="AH22">
+        <v>2015</v>
+      </c>
+      <c r="AI22">
+        <v>72</v>
+      </c>
+      <c r="AJ22">
+        <v>2</v>
+      </c>
+      <c r="AK22" t="s">
+        <v>123</v>
+      </c>
+      <c r="AL22" t="s">
+        <v>140</v>
+      </c>
+      <c r="AM22" t="s">
+        <v>100</v>
+      </c>
+      <c r="AO22" t="s">
+        <v>141</v>
+      </c>
+      <c r="AP22" s="1">
+        <v>41845.622499999998</v>
+      </c>
+    </row>
+    <row r="23" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>58789</v>
+      </c>
+      <c r="B23">
+        <v>16351</v>
+      </c>
+      <c r="C23" t="s">
+        <v>42</v>
+      </c>
+      <c r="D23" t="s">
+        <v>43</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="1">
+        <v>41471</v>
+      </c>
+      <c r="H23" t="s">
+        <v>157</v>
+      </c>
+      <c r="I23" t="s">
+        <v>46</v>
+      </c>
+      <c r="J23" t="s">
+        <v>46</v>
+      </c>
+      <c r="K23" t="s">
+        <v>47</v>
+      </c>
+      <c r="L23" t="s">
+        <v>177</v>
+      </c>
+      <c r="M23" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" t="s">
+        <v>49</v>
+      </c>
+      <c r="O23">
+        <v>3559408</v>
+      </c>
+      <c r="P23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q23" t="s">
+        <v>51</v>
+      </c>
+      <c r="R23" t="s">
+        <v>46</v>
+      </c>
+      <c r="S23">
+        <v>1</v>
+      </c>
+      <c r="T23" t="s">
+        <v>142</v>
+      </c>
+      <c r="U23">
+        <v>16351</v>
+      </c>
+      <c r="V23">
+        <v>1</v>
+      </c>
+      <c r="W23" t="s">
+        <v>52</v>
+      </c>
+      <c r="X23" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y23" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA23" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB23">
+        <v>6851</v>
+      </c>
+      <c r="AC23">
+        <v>27</v>
+      </c>
+      <c r="AD23">
+        <v>11151</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF23" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>41696.74858796296</v>
+      </c>
+      <c r="AH23">
+        <v>2014</v>
+      </c>
+      <c r="AI23">
+        <v>0</v>
+      </c>
+      <c r="AJ23">
+        <v>0</v>
+      </c>
+      <c r="AK23" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN23" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP23" s="1">
+        <v>41879.430219907408</v>
+      </c>
+    </row>
+    <row r="24" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>48789</v>
+      </c>
+      <c r="B24">
+        <v>16351</v>
+      </c>
+      <c r="C24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D24" t="s">
+        <v>43</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>45</v>
+      </c>
+      <c r="G24" s="1">
+        <v>41471</v>
+      </c>
+      <c r="H24" t="s">
+        <v>157</v>
+      </c>
+      <c r="I24" t="s">
+        <v>46</v>
+      </c>
+      <c r="J24" t="s">
+        <v>46</v>
+      </c>
+      <c r="K24" t="s">
+        <v>47</v>
+      </c>
+      <c r="L24" t="s">
+        <v>177</v>
+      </c>
+      <c r="M24" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" t="s">
+        <v>49</v>
+      </c>
+      <c r="O24">
+        <v>3559408</v>
+      </c>
+      <c r="P24" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q24" t="s">
+        <v>51</v>
+      </c>
+      <c r="R24" t="s">
+        <v>46</v>
+      </c>
+      <c r="S24">
+        <v>1</v>
+      </c>
+      <c r="T24" t="s">
+        <v>142</v>
+      </c>
+      <c r="U24">
+        <v>16351</v>
+      </c>
+      <c r="V24">
+        <v>1</v>
+      </c>
+      <c r="W24" t="s">
+        <v>52</v>
+      </c>
+      <c r="X24" t="s">
+        <v>143</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>167</v>
+      </c>
+      <c r="AA24" t="s">
+        <v>53</v>
+      </c>
+      <c r="AB24">
+        <v>6851</v>
+      </c>
+      <c r="AC24">
+        <v>27</v>
+      </c>
+      <c r="AD24">
+        <v>11151</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>54</v>
+      </c>
+      <c r="AF24" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>41696.74858796296</v>
+      </c>
+      <c r="AH24">
+        <v>2014</v>
+      </c>
+      <c r="AI24">
+        <v>0</v>
+      </c>
+      <c r="AJ24">
+        <v>0</v>
+      </c>
+      <c r="AK24" t="s">
+        <v>56</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>57</v>
+      </c>
+      <c r="AM24" t="s">
+        <v>157</v>
+      </c>
+      <c r="AN24" t="s">
+        <v>156</v>
+      </c>
+      <c r="AP24" s="1">
+        <v>41879.430219907408</v>
+      </c>
+    </row>
+    <row r="25" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>37291</v>
+      </c>
+      <c r="B25">
+        <v>12800</v>
+      </c>
+      <c r="C25" t="s">
+        <v>42</v>
+      </c>
+      <c r="D25" t="s">
+        <v>79</v>
+      </c>
+      <c r="E25" t="s">
+        <v>80</v>
+      </c>
+      <c r="F25" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" s="1">
+        <v>40857</v>
+      </c>
+      <c r="H25" t="s">
+        <v>163</v>
+      </c>
+      <c r="I25" t="s">
+        <v>46</v>
+      </c>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+      <c r="K25" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" t="s">
+        <v>179</v>
+      </c>
+      <c r="M25" t="s">
+        <v>48</v>
+      </c>
+      <c r="N25" t="s">
+        <v>83</v>
+      </c>
+      <c r="O25">
+        <v>3319760</v>
+      </c>
+      <c r="P25" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q25" t="s">
+        <v>51</v>
+      </c>
+      <c r="R25" t="s">
+        <v>46</v>
+      </c>
+      <c r="S25">
+        <v>1</v>
+      </c>
+      <c r="T25" t="s">
+        <v>146</v>
+      </c>
+      <c r="U25">
+        <v>12800</v>
+      </c>
+      <c r="V25">
+        <v>1</v>
+      </c>
+      <c r="W25" t="s">
+        <v>84</v>
+      </c>
+      <c r="X25" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA25" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB25">
+        <v>11712</v>
+      </c>
+      <c r="AC25">
+        <v>3</v>
+      </c>
+      <c r="AD25">
+        <v>43512</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF25" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>41321.018425925926</v>
+      </c>
+      <c r="AH25">
+        <v>2013</v>
+      </c>
+      <c r="AI25">
+        <v>0</v>
+      </c>
+      <c r="AJ25">
+        <v>0</v>
+      </c>
+      <c r="AK25" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL25" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM25" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN25" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP25" s="1">
+        <v>41879.424884259257</v>
+      </c>
+    </row>
+    <row r="26" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>31897</v>
+      </c>
+      <c r="B26">
+        <v>5050</v>
+      </c>
+      <c r="C26" t="s">
+        <v>42</v>
+      </c>
+      <c r="D26" t="s">
+        <v>58</v>
+      </c>
+      <c r="E26" t="s">
+        <v>59</v>
+      </c>
+      <c r="F26" t="s">
+        <v>60</v>
+      </c>
+      <c r="G26" s="1">
+        <v>39281</v>
+      </c>
+      <c r="H26" t="s">
+        <v>159</v>
+      </c>
+      <c r="I26" t="s">
+        <v>46</v>
+      </c>
+      <c r="J26" t="s">
+        <v>46</v>
+      </c>
+      <c r="K26" t="s">
+        <v>61</v>
+      </c>
+      <c r="L26" t="s">
+        <v>178</v>
+      </c>
+      <c r="M26" t="s">
+        <v>48</v>
+      </c>
+      <c r="N26" t="s">
+        <v>62</v>
+      </c>
+      <c r="O26">
+        <v>2050280</v>
+      </c>
+      <c r="P26" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q26" t="s">
+        <v>51</v>
+      </c>
+      <c r="R26" t="s">
+        <v>46</v>
+      </c>
+      <c r="S26">
+        <v>1</v>
+      </c>
+      <c r="T26" t="s">
+        <v>144</v>
+      </c>
+      <c r="U26">
+        <v>5050</v>
+      </c>
+      <c r="V26">
+        <v>1</v>
+      </c>
+      <c r="W26" t="s">
+        <v>63</v>
+      </c>
+      <c r="X26" t="s">
+        <v>145</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>168</v>
+      </c>
+      <c r="AA26" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB26">
+        <v>2926</v>
+      </c>
+      <c r="AC26">
+        <v>26</v>
+      </c>
+      <c r="AD26">
+        <v>13734</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>65</v>
+      </c>
+      <c r="AF26" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>40808.651956018519</v>
+      </c>
+      <c r="AH26">
+        <v>2012</v>
+      </c>
+      <c r="AI26">
+        <v>0</v>
+      </c>
+      <c r="AJ26">
+        <v>0</v>
+      </c>
+      <c r="AK26" t="s">
+        <v>66</v>
+      </c>
+      <c r="AL26" t="s">
+        <v>67</v>
+      </c>
+      <c r="AM26" t="s">
+        <v>159</v>
+      </c>
+      <c r="AN26" t="s">
+        <v>158</v>
+      </c>
+      <c r="AP26" s="1">
+        <v>41879.420752314814</v>
+      </c>
+    </row>
+    <row r="27" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>38506</v>
+      </c>
+      <c r="B27">
+        <v>14387</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>68</v>
+      </c>
+      <c r="E27" t="s">
+        <v>69</v>
+      </c>
+      <c r="F27" t="s">
+        <v>70</v>
+      </c>
+      <c r="G27" s="1">
+        <v>39891</v>
+      </c>
+      <c r="H27" t="s">
+        <v>161</v>
+      </c>
+      <c r="I27" t="s">
+        <v>46</v>
+      </c>
+      <c r="J27" t="s">
+        <v>46</v>
+      </c>
+      <c r="K27" t="s">
+        <v>71</v>
+      </c>
+      <c r="L27" t="s">
+        <v>179</v>
+      </c>
+      <c r="M27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N27" t="s">
+        <v>72</v>
+      </c>
+      <c r="O27">
+        <v>2023628</v>
+      </c>
+      <c r="P27" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>51</v>
+      </c>
+      <c r="R27" t="s">
+        <v>46</v>
+      </c>
+      <c r="S27">
+        <v>1</v>
+      </c>
+      <c r="T27" t="s">
+        <v>146</v>
+      </c>
+      <c r="U27">
+        <v>14387</v>
+      </c>
+      <c r="V27">
+        <v>1</v>
+      </c>
+      <c r="W27" t="s">
+        <v>73</v>
+      </c>
+      <c r="X27" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>169</v>
+      </c>
+      <c r="AA27" t="s">
+        <v>74</v>
+      </c>
+      <c r="AB27">
+        <v>1421</v>
+      </c>
+      <c r="AC27">
+        <v>1</v>
+      </c>
+      <c r="AD27">
+        <v>735366</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>75</v>
+      </c>
+      <c r="AF27" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>41495.977534722224</v>
+      </c>
+      <c r="AH27">
+        <v>2014</v>
+      </c>
+      <c r="AI27">
+        <v>105</v>
+      </c>
+      <c r="AJ27">
+        <v>3</v>
+      </c>
+      <c r="AK27" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL27" t="s">
+        <v>78</v>
+      </c>
+      <c r="AM27" t="s">
+        <v>161</v>
+      </c>
+      <c r="AN27" t="s">
+        <v>160</v>
+      </c>
+      <c r="AP27" s="1">
+        <v>41794.65960648148</v>
+      </c>
+    </row>
+    <row r="28" spans="1:42" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>36291</v>
+      </c>
+      <c r="B28">
+        <v>12800</v>
+      </c>
+      <c r="C28" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>79</v>
+      </c>
+      <c r="E28" t="s">
+        <v>80</v>
+      </c>
+      <c r="F28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G28" s="1">
+        <v>40857</v>
+      </c>
+      <c r="H28" t="s">
+        <v>163</v>
+      </c>
+      <c r="I28" t="s">
+        <v>46</v>
+      </c>
+      <c r="J28" t="s">
+        <v>46</v>
+      </c>
+      <c r="K28" t="s">
+        <v>82</v>
+      </c>
+      <c r="L28" t="s">
+        <v>179</v>
+      </c>
+      <c r="M28" t="s">
+        <v>48</v>
+      </c>
+      <c r="N28" t="s">
+        <v>83</v>
+      </c>
+      <c r="O28">
+        <v>3319760</v>
+      </c>
+      <c r="P28" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q28" t="s">
+        <v>51</v>
+      </c>
+      <c r="R28" t="s">
+        <v>46</v>
+      </c>
+      <c r="S28">
+        <v>1</v>
+      </c>
+      <c r="T28" t="s">
+        <v>146</v>
+      </c>
+      <c r="U28">
+        <v>12800</v>
+      </c>
+      <c r="V28">
+        <v>1</v>
+      </c>
+      <c r="W28" t="s">
+        <v>84</v>
+      </c>
+      <c r="X28" t="s">
+        <v>147</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>154</v>
+      </c>
+      <c r="Z28" t="s">
+        <v>170</v>
+      </c>
+      <c r="AA28" t="s">
+        <v>85</v>
+      </c>
+      <c r="AB28">
+        <v>11712</v>
+      </c>
+      <c r="AC28">
+        <v>3</v>
+      </c>
+      <c r="AD28">
+        <v>43512</v>
+      </c>
+      <c r="AE28" t="s">
+        <v>86</v>
+      </c>
+      <c r="AF28" t="s">
+        <v>55</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>41321.018425925926</v>
+      </c>
+      <c r="AH28">
+        <v>2013</v>
+      </c>
+      <c r="AI28">
+        <v>0</v>
+      </c>
+      <c r="AJ28">
+        <v>0</v>
+      </c>
+      <c r="AK28" t="s">
+        <v>77</v>
+      </c>
+      <c r="AL28" t="s">
+        <v>87</v>
+      </c>
+      <c r="AM28" t="s">
+        <v>163</v>
+      </c>
+      <c r="AN28" t="s">
+        <v>162</v>
+      </c>
+      <c r="AP28" s="1">
+        <v>41879.424884259257</v>
       </c>
     </row>
   </sheetData>
